--- a/Results/Shared_PV/New Microsoft Excel Worksheet.xlsx
+++ b/Results/Shared_PV/New Microsoft Excel Worksheet.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smart\Downloads\CityLearn-EVModel-Parisa-develop-ev (2)\CityLearn-EVModel-Parisa-develop-ev\ev_test_data\Results\Shared_PV\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B884EE55-59C9-49A1-9108-4F108793DBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SAC" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +25,268 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>index,cost_function,value,name,level</t>
+  </si>
+  <si>
+    <t>0,annual_peak_average,1.008029488203728,District,district</t>
+  </si>
+  <si>
+    <t>1,carbon_emissions_total,1.0053846797029413,District,district</t>
+  </si>
+  <si>
+    <t>2,cost_total,1.0076229210984562,District,district</t>
+  </si>
+  <si>
+    <t>3,daily_peak_average,1.0228972281376016,District,district</t>
+  </si>
+  <si>
+    <t>4,discomfort_delta_average,0.0,District,district</t>
+  </si>
+  <si>
+    <t>5,discomfort_delta_maximum,0.0,District,district</t>
+  </si>
+  <si>
+    <t>6,discomfort_delta_minimum,0.0,District,district</t>
+  </si>
+  <si>
+    <t>7,discomfort_proportion,NaN,District,district</t>
+  </si>
+  <si>
+    <t>8,discomfort_too_cold_proportion,NaN,District,district</t>
+  </si>
+  <si>
+    <t>9,discomfort_too_hot_proportion,NaN,District,district</t>
+  </si>
+  <si>
+    <t>10,electricity_consumption_total,1.0050075086914971,District,district</t>
+  </si>
+  <si>
+    <t>11,one_minus_load_factor_average,1.0188160536583433,District,district</t>
+  </si>
+  <si>
+    <t>12,ramping_average,1.0871646420568308,District,district</t>
+  </si>
+  <si>
+    <t>13,zero_net_energy,0.9965786473878218,District,district</t>
+  </si>
+  <si>
+    <t>14,electricity_consumption_total,1.01211668409371,Building_1,building</t>
+  </si>
+  <si>
+    <t>15,zero_net_energy,1.01211668409371,Building_1,building</t>
+  </si>
+  <si>
+    <t>16,carbon_emissions_total,1.0120097969583506,Building_1,building</t>
+  </si>
+  <si>
+    <t>17,cost_total,1.0143892606442806,Building_1,building</t>
+  </si>
+  <si>
+    <t>18,discomfort_proportion,NaN,Building_1,building</t>
+  </si>
+  <si>
+    <t>19,discomfort_too_cold_proportion,NaN,Building_1,building</t>
+  </si>
+  <si>
+    <t>20,discomfort_too_hot_proportion,NaN,Building_1,building</t>
+  </si>
+  <si>
+    <t>21,discomfort_delta_minimum,0.0,Building_1,building</t>
+  </si>
+  <si>
+    <t>22,discomfort_delta_maximum,0.0,Building_1,building</t>
+  </si>
+  <si>
+    <t>23,discomfort_delta_average,0.0,Building_1,building</t>
+  </si>
+  <si>
+    <t>24,electricity_consumption_total,0.9857046825518943,Building_2,building</t>
+  </si>
+  <si>
+    <t>25,zero_net_energy,0.9289388523049639,Building_2,building</t>
+  </si>
+  <si>
+    <t>26,carbon_emissions_total,0.9854616817047823,Building_2,building</t>
+  </si>
+  <si>
+    <t>27,cost_total,0.9881165443168684,Building_2,building</t>
+  </si>
+  <si>
+    <t>28,discomfort_proportion,NaN,Building_2,building</t>
+  </si>
+  <si>
+    <t>29,discomfort_too_cold_proportion,NaN,Building_2,building</t>
+  </si>
+  <si>
+    <t>30,discomfort_too_hot_proportion,NaN,Building_2,building</t>
+  </si>
+  <si>
+    <t>31,discomfort_delta_minimum,0.0,Building_2,building</t>
+  </si>
+  <si>
+    <t>32,discomfort_delta_maximum,0.0,Building_2,building</t>
+  </si>
+  <si>
+    <t>33,discomfort_delta_average,0.0,Building_2,building</t>
+  </si>
+  <si>
+    <t>34,electricity_consumption_total,1.0191157009199951,Building_3,building</t>
+  </si>
+  <si>
+    <t>35,zero_net_energy,1.0191157009199951,Building_3,building</t>
+  </si>
+  <si>
+    <t>36,carbon_emissions_total,1.0189565526760103,Building_3,building</t>
+  </si>
+  <si>
+    <t>37,cost_total,1.0278234762475666,Building_3,building</t>
+  </si>
+  <si>
+    <t>38,discomfort_proportion,NaN,Building_3,building</t>
+  </si>
+  <si>
+    <t>39,discomfort_too_cold_proportion,NaN,Building_3,building</t>
+  </si>
+  <si>
+    <t>40,discomfort_too_hot_proportion,NaN,Building_3,building</t>
+  </si>
+  <si>
+    <t>41,discomfort_delta_minimum,0.0,Building_3,building</t>
+  </si>
+  <si>
+    <t>42,discomfort_delta_maximum,0.0,Building_3,building</t>
+  </si>
+  <si>
+    <t>43,discomfort_delta_average,0.0,Building_3,building</t>
+  </si>
+  <si>
+    <t>44,electricity_consumption_total,0.9787771511146611,Building_4,building</t>
+  </si>
+  <si>
+    <t>45,zero_net_energy,0.977766284113742,Building_4,building</t>
+  </si>
+  <si>
+    <t>46,carbon_emissions_total,0.9792092918990805,Building_4,building</t>
+  </si>
+  <si>
+    <t>47,cost_total,0.974681727945559,Building_4,building</t>
+  </si>
+  <si>
+    <t>48,discomfort_proportion,NaN,Building_4,building</t>
+  </si>
+  <si>
+    <t>49,discomfort_too_cold_proportion,NaN,Building_4,building</t>
+  </si>
+  <si>
+    <t>50,discomfort_too_hot_proportion,NaN,Building_4,building</t>
+  </si>
+  <si>
+    <t>51,discomfort_delta_minimum,0.0,Building_4,building</t>
+  </si>
+  <si>
+    <t>52,discomfort_delta_maximum,0.0,Building_4,building</t>
+  </si>
+  <si>
+    <t>53,discomfort_delta_average,0.0,Building_4,building</t>
+  </si>
+  <si>
+    <t>54,electricity_consumption_total,0.9985543241577188,Building_5,building</t>
+  </si>
+  <si>
+    <t>55,zero_net_energy,0.9985543042183479,Building_5,building</t>
+  </si>
+  <si>
+    <t>56,carbon_emissions_total,0.9985533592858802,Building_5,building</t>
+  </si>
+  <si>
+    <t>57,cost_total,0.9980013236875531,Building_5,building</t>
+  </si>
+  <si>
+    <t>58,discomfort_proportion,NaN,Building_5,building</t>
+  </si>
+  <si>
+    <t>59,discomfort_too_cold_proportion,NaN,Building_5,building</t>
+  </si>
+  <si>
+    <t>60,discomfort_too_hot_proportion,NaN,Building_5,building</t>
+  </si>
+  <si>
+    <t>61,discomfort_delta_minimum,0.0,Building_5,building</t>
+  </si>
+  <si>
+    <t>62,discomfort_delta_maximum,0.0,Building_5,building</t>
+  </si>
+  <si>
+    <t>63,discomfort_delta_average,0.0,Building_5,building</t>
+  </si>
+  <si>
+    <t>64,electricity_consumption_total,1.0582073370704377,Building_6,building</t>
+  </si>
+  <si>
+    <t>65,zero_net_energy,1.0582073370704377,Building_6,building</t>
+  </si>
+  <si>
+    <t>66,carbon_emissions_total,1.0608604407662,Building_6,building</t>
+  </si>
+  <si>
+    <t>67,cost_total,1.0763850804220512,Building_6,building</t>
+  </si>
+  <si>
+    <t>68,discomfort_proportion,NaN,Building_6,building</t>
+  </si>
+  <si>
+    <t>69,discomfort_too_cold_proportion,NaN,Building_6,building</t>
+  </si>
+  <si>
+    <t>70,discomfort_too_hot_proportion,NaN,Building_6,building</t>
+  </si>
+  <si>
+    <t>71,discomfort_delta_minimum,0.0,Building_6,building</t>
+  </si>
+  <si>
+    <t>72,discomfort_delta_maximum,0.0,Building_6,building</t>
+  </si>
+  <si>
+    <t>73,discomfort_delta_average,0.0,Building_6,building</t>
+  </si>
+  <si>
+    <t>74,electricity_consumption_total,0.9825766809320626,Building_7,building</t>
+  </si>
+  <si>
+    <t>75,zero_net_energy,0.9813513689935552,Building_7,building</t>
+  </si>
+  <si>
+    <t>76,carbon_emissions_total,0.9826416346302853,Building_7,building</t>
+  </si>
+  <si>
+    <t>77,cost_total,0.9739630344253151,Building_7,building</t>
+  </si>
+  <si>
+    <t>78,discomfort_proportion,NaN,Building_7,building</t>
+  </si>
+  <si>
+    <t>79,discomfort_too_cold_proportion,NaN,Building_7,building</t>
+  </si>
+  <si>
+    <t>80,discomfort_too_hot_proportion,NaN,Building_7,building</t>
+  </si>
+  <si>
+    <t>81,discomfort_delta_minimum,0.0,Building_7,building</t>
+  </si>
+  <si>
+    <t>82,discomfort_delta_maximum,0.0,Building_7,building</t>
+  </si>
+  <si>
+    <t>83,discomfort_delta_average,0.0,Building_7,building</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,12 +597,452 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9BA05C-23C0-479F-B707-0291EABD44C6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
